--- a/SchemeIBPRME/SchemePBAC.xlsx
+++ b/SchemeIBPRME/SchemePBAC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,60 +516,55 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1 (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG2 (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>elementOfGT (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>mpk (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>msk (B)</t>
+          <t>ek_id_1 (B)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ek_id_1 (B)</t>
+          <t>ek_id_2 (B)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>ek_id_2 (B)</t>
+          <t>dk_id_2 (B)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>dk_id_2 (B)</t>
+          <t>dk_id_3 (B)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>dk_id_3 (B)</t>
+          <t>C (B)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>C (B)</t>
+          <t>rk (B)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>rk (B)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -585,43 +580,43 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4365e-05</v>
+        <v>3.2246e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004493417</v>
+        <v>0.002100825</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0089855</v>
+        <v>0.004153388</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006909247</v>
+        <v>0.006316237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007344105</v>
+        <v>0.006759943</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004395652</v>
+        <v>0.00410978</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005105467</v>
+        <v>0.004746345</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00938633</v>
+        <v>0.008718955</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -630,36 +625,33 @@
         <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S2" t="n">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="T2" t="n">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="U2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V2" t="n">
         <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X2" t="n">
         <v>180</v>
       </c>
       <c r="Y2" t="n">
-        <v>180</v>
+        <v>544</v>
       </c>
       <c r="Z2" t="n">
-        <v>544</v>
+        <v>244</v>
       </c>
       <c r="AA2" t="n">
-        <v>244</v>
-      </c>
-      <c r="AB2" t="n">
         <v>502</v>
       </c>
     </row>
@@ -673,43 +665,43 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3255e-05</v>
+        <v>3.0909e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004516504</v>
+        <v>0.002132744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009002843</v>
+        <v>0.00421639</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006805158</v>
+        <v>0.006414858</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007293525</v>
+        <v>0.006847626</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00442075</v>
+        <v>0.004161633</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005128832</v>
+        <v>0.004768696</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009408557999999999</v>
+        <v>0.008801181999999999</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -718,36 +710,33 @@
         <v>90</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S3" t="n">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="T3" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="U3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V3" t="n">
         <v>90</v>
       </c>
       <c r="W3" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X3" t="n">
         <v>180</v>
       </c>
       <c r="Y3" t="n">
-        <v>180</v>
+        <v>548</v>
       </c>
       <c r="Z3" t="n">
-        <v>548</v>
+        <v>260</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB3" t="n">
         <v>518</v>
       </c>
     </row>
@@ -761,43 +750,43 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8588e-05</v>
+        <v>3.017e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004504968</v>
+        <v>0.002062346</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009068231</v>
+        <v>0.004134298</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006806415</v>
+        <v>0.00627061</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007291112</v>
+        <v>0.00669622</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004471395</v>
+        <v>0.004049951</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005125733</v>
+        <v>0.004692268</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009506804000000001</v>
+        <v>0.008696812</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -806,36 +795,33 @@
         <v>90</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S4" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="T4" t="n">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="U4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V4" t="n">
         <v>90</v>
       </c>
       <c r="W4" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X4" t="n">
         <v>180</v>
       </c>
       <c r="Y4" t="n">
-        <v>180</v>
+        <v>556</v>
       </c>
       <c r="Z4" t="n">
-        <v>556</v>
+        <v>292</v>
       </c>
       <c r="AA4" t="n">
-        <v>292</v>
-      </c>
-      <c r="AB4" t="n">
         <v>550</v>
       </c>
     </row>
@@ -849,43 +835,43 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3591e-05</v>
+        <v>3.0192e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004631715</v>
+        <v>0.00208368</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009209189</v>
+        <v>0.004149458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007067359</v>
+        <v>0.006268675</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007545948</v>
+        <v>0.006727907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004512248</v>
+        <v>0.004075352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00537083</v>
+        <v>0.004701957</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009705058000000001</v>
+        <v>0.008635621</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -894,36 +880,33 @@
         <v>90</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S5" t="n">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="T5" t="n">
-        <v>372</v>
+        <v>60</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V5" t="n">
         <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X5" t="n">
         <v>180</v>
       </c>
       <c r="Y5" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="Z5" t="n">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="AA5" t="n">
-        <v>308</v>
-      </c>
-      <c r="AB5" t="n">
         <v>566</v>
       </c>
     </row>
@@ -937,43 +920,43 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4478e-05</v>
+        <v>3.0505e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004517907</v>
+        <v>0.002081887</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009020876000000001</v>
+        <v>0.004165753</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006865801</v>
+        <v>0.006304245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007377079</v>
+        <v>0.006795904</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004437679</v>
+        <v>0.004074907</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005151137</v>
+        <v>0.004770262</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009449627</v>
+        <v>0.008761753000000001</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -982,36 +965,33 @@
         <v>90</v>
       </c>
       <c r="R6" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S6" t="n">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="T6" t="n">
-        <v>468</v>
+        <v>60</v>
       </c>
       <c r="U6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V6" t="n">
         <v>90</v>
       </c>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X6" t="n">
         <v>180</v>
       </c>
       <c r="Y6" t="n">
-        <v>180</v>
+        <v>576</v>
       </c>
       <c r="Z6" t="n">
-        <v>576</v>
+        <v>372</v>
       </c>
       <c r="AA6" t="n">
-        <v>372</v>
-      </c>
-      <c r="AB6" t="n">
         <v>630</v>
       </c>
     </row>
@@ -1025,43 +1005,43 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2507e-05</v>
+        <v>3.2678e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00454148</v>
+        <v>0.002101296</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009057872999999999</v>
+        <v>0.004177413</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006866588</v>
+        <v>0.006321881</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007355811</v>
+        <v>0.006841059</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004435038</v>
+        <v>0.004145523</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005184054</v>
+        <v>0.004789596</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00948356</v>
+        <v>0.008768869</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1070,36 +1050,33 @@
         <v>90</v>
       </c>
       <c r="R7" t="n">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="S7" t="n">
-        <v>174</v>
+        <v>564</v>
       </c>
       <c r="T7" t="n">
-        <v>564</v>
+        <v>60</v>
       </c>
       <c r="U7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V7" t="n">
         <v>90</v>
       </c>
       <c r="W7" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="X7" t="n">
         <v>180</v>
       </c>
       <c r="Y7" t="n">
-        <v>180</v>
+        <v>592</v>
       </c>
       <c r="Z7" t="n">
-        <v>592</v>
+        <v>436</v>
       </c>
       <c r="AA7" t="n">
-        <v>436</v>
-      </c>
-      <c r="AB7" t="n">
         <v>694</v>
       </c>
     </row>
